--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022.2\ITSS\timekeeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BEC613-AF21-4ADE-B251-549400440F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9267B8D-6728-43A1-B588-B653C93FDE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{61D5D16B-BC6F-4A13-AD04-98C40F6B0500}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61D5D16B-BC6F-4A13-AD04-98C40F6B0500}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="26">
   <si>
     <t>Employee_ID</t>
   </si>
@@ -75,6 +75,45 @@
   </si>
   <si>
     <t>16:00 25/06/2023</t>
+  </si>
+  <si>
+    <t>18:00 25/06/2023</t>
+  </si>
+  <si>
+    <t>19:00 25/06/2023</t>
+  </si>
+  <si>
+    <t>18:30 25/06/2023</t>
+  </si>
+  <si>
+    <t>18:40 25/06/2023</t>
+  </si>
+  <si>
+    <t>20:00 25/06/2023</t>
+  </si>
+  <si>
+    <t>11:30 25/06/2023</t>
+  </si>
+  <si>
+    <t>15:00 25/06/2023</t>
+  </si>
+  <si>
+    <t>08:00 26/06/2023</t>
+  </si>
+  <si>
+    <t>09:00 26/06/2023</t>
+  </si>
+  <si>
+    <t>08:00 27/06/2023</t>
+  </si>
+  <si>
+    <t>11:00 27/06/2023</t>
+  </si>
+  <si>
+    <t>13:00 22/06/2023</t>
+  </si>
+  <si>
+    <t>16:30 22/06/2023</t>
   </si>
 </sst>
 </file>
@@ -432,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030AB8C9-6085-40AA-B6F3-146EBC1F7CF7}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -610,6 +649,118 @@
       </c>
       <c r="B21" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022.2\ITSS\timekeeper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9267B8D-6728-43A1-B588-B653C93FDE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56C39E3-40C4-43C0-9126-479487325944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61D5D16B-BC6F-4A13-AD04-98C40F6B0500}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27720" windowHeight="11295" xr2:uid="{61D5D16B-BC6F-4A13-AD04-98C40F6B0500}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030AB8C9-6085-40AA-B6F3-146EBC1F7CF7}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
